--- a/platform_compatibility.xlsx
+++ b/platform_compatibility.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msengage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C29110E-7C72-41E7-A431-4F49D4679152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D43D52-816C-422E-A00D-970EF63395F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{730D989E-2977-41A3-97D2-0B4F926BBE0B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>android</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>map launcher</t>
+  </si>
+  <si>
+    <t>cached network image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +106,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +133,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -136,12 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,15 +474,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D66C66-C184-4BC6-884A-D0E4EF9A3FB3}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -630,6 +648,17 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/platform_compatibility.xlsx
+++ b/platform_compatibility.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\msengage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D43D52-816C-422E-A00D-970EF63395F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76C9237-E97A-4371-A02F-221407348D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{730D989E-2977-41A3-97D2-0B4F926BBE0B}"/>
+    <workbookView xWindow="900" yWindow="-108" windowWidth="22248" windowHeight="13176" xr2:uid="{730D989E-2977-41A3-97D2-0B4F926BBE0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +109,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -160,6 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +485,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +563,7 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
